--- a/biology/Histoire de la zoologie et de la botanique/Harold_Douglas_Pratt/Harold_Douglas_Pratt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Harold_Douglas_Pratt/Harold_Douglas_Pratt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harold Douglas Pratt (né le 23 juillet 1944 à Charlotte, en Caroline du Nord[1]) est un ornithologue américain, photographe naturaliste et spécialiste en bioacoustique. Il a particulièrement travaillé sur l'avifaune d'Hawaii et d'autres îles du Pacifique et a été l'un des pionniers dans l'enregistrement des chants d'oiseaux. Il est membre de l'American Ornithologists' Union.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harold Douglas Pratt (né le 23 juillet 1944 à Charlotte, en Caroline du Nord) est un ornithologue américain, photographe naturaliste et spécialiste en bioacoustique. Il a particulièrement travaillé sur l'avifaune d'Hawaii et d'autres îles du Pacifique et a été l'un des pionniers dans l'enregistrement des chants d'oiseaux. Il est membre de l'American Ornithologists' Union.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1966, Pratt décroche un Bachelor of Science au Davidson College à Davidson, en Caroline du Nord. Il écrit une thèse sur l'« Analyse de la systématique de l'avifaune endémique des îles hawaïennes », et valide ainsi son doctorat à l'université d'État de Louisiane en 1979. Il travaille comme ingénieur de recherche dans cette même université à Baton Rouge de 1980 à 2005, puis devient conservateur au North Carolina State Museum of Natural Sciences de Raleigh[2].
-En 1975 Pratt est l'un des derniers scientifiques a pouvoir photographié le ʻŌʻū, aujourd'hui probablement disparu[3].
-Pratt a proposé une profonde révision dans le genre Zosterops[4] et dans la sous-famille des Drepanidinae. En 1987 il sépare le Zostérops bridé en trois espèces distinctes : Zosterops conspicillatus, Zosterops semperi, et Zosterops hypolais[4]. En 1979 il renomme Hemignathus wilsoni en Hemignathus munroi. En 1989, il déplace Hemignathus kauaiensis du genre Himatione vers le genre Hemignathus. En 2009, il crée le genre Manucerthia pour Oreomystis mana[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1966, Pratt décroche un Bachelor of Science au Davidson College à Davidson, en Caroline du Nord. Il écrit une thèse sur l'« Analyse de la systématique de l'avifaune endémique des îles hawaïennes », et valide ainsi son doctorat à l'université d'État de Louisiane en 1979. Il travaille comme ingénieur de recherche dans cette même université à Baton Rouge de 1980 à 2005, puis devient conservateur au North Carolina State Museum of Natural Sciences de Raleigh.
+En 1975 Pratt est l'un des derniers scientifiques a pouvoir photographié le ʻŌʻū, aujourd'hui probablement disparu.
+Pratt a proposé une profonde révision dans le genre Zosterops et dans la sous-famille des Drepanidinae. En 1987 il sépare le Zostérops bridé en trois espèces distinctes : Zosterops conspicillatus, Zosterops semperi, et Zosterops hypolais. En 1979 il renomme Hemignathus wilsoni en Hemignathus munroi. En 1989, il déplace Hemignathus kauaiensis du genre Himatione vers le genre Hemignathus. En 2009, il crée le genre Manucerthia pour Oreomystis mana.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Principaux travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1987 : A Field Guide to the Birds of Hawaii and the Tropical Pacific
 1996 : Hawaii's Beautiful Birds
@@ -555,7 +571,7 @@
 2006 : Flowering Trees: Images of Hawaii's Natural Beauty
 2007 : Birds: Images of Hawaii's Feathered Heritage
 2008 : Birds &amp; Bats of Palau
-Pratt a illustré au moins 20 livres, dont plusieurs planches dans le Handbook of the Birds of the World[2].
+Pratt a illustré au moins 20 livres, dont plusieurs planches dans le Handbook of the Birds of the World.
 </t>
         </is>
       </c>
